--- a/信用卡贷后系统/二期需求/5调额业务需求/贷后调额业务需求-工作量.xlsx
+++ b/信用卡贷后系统/二期需求/5调额业务需求/贷后调额业务需求-工作量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -160,6 +160,12 @@
     <t>修改发起批量调额队列导入功能</t>
   </si>
   <si>
+    <t>修改条件筛选申请时数据处理逻辑</t>
+  </si>
+  <si>
+    <t>修改导入调额数据处理逻辑</t>
+  </si>
+  <si>
     <t>修改决策主动推送调额数据处理逻辑</t>
   </si>
   <si>
@@ -196,6 +202,36 @@
     <t>决策反馈记录表新增字段</t>
   </si>
   <si>
+    <t>调额管理</t>
+  </si>
+  <si>
+    <t>调额结果查询-审批记录修改</t>
+  </si>
+  <si>
+    <t>条件筛选队列</t>
+  </si>
+  <si>
+    <t>综合查询-单笔调额</t>
+  </si>
+  <si>
+    <t>调额结果查询队列</t>
+  </si>
+  <si>
+    <t>单笔调额实时接口</t>
+  </si>
+  <si>
+    <t>决策反馈页面</t>
+  </si>
+  <si>
+    <t>批量调额文件交互</t>
+  </si>
+  <si>
+    <t>批量调额决策主动批量</t>
+  </si>
+  <si>
+    <t>调额结果查询页面</t>
+  </si>
+  <si>
     <t>合计（人月）</t>
   </si>
   <si>
@@ -280,7 +316,13 @@
     <t>（1）修改条件筛选队列查询数据，可查询新核心数据；</t>
   </si>
   <si>
-    <t>（1）修改发起批量调额队列导入时客户数据判断；（2）在“Excel导入”模板中，增加“是否特殊流程”、“卡号”两个字段</t>
+    <t>（1）修改发起批量调额队列导入时客户数据判断；（2）在“Excel导入”模板中，增加“是否特殊流程”、“卡号”两个字段（3）修改导入EXCEL数据处理逻辑</t>
+  </si>
+  <si>
+    <t>修改条件筛选申请时调额数据处理逻辑</t>
+  </si>
+  <si>
+    <t>在贷后管理系统中若按卡号申请调额，则调整对应卡号的额度。若未按卡号申请调额（如按身份证等），按以下方式优先选择卡号进行调整：（1）双核心系统均有卡片，优先调整新核心卡片。（2）银数系统若有多帐户，优先选择最高额帐户；（3）新核心系统、银数系统最高额帐若有多张卡，按尊惠版白金卡、白金卡、金卡、金卡城市印象卡、联名卡、合家卡、普卡、其他卡的优先顺序进行调额。</t>
   </si>
   <si>
     <t>（1）修改决策主动推送调额数据逻辑；</t>
@@ -289,10 +331,10 @@
     <t>（1）新增新核心调额数据与核心交互批量</t>
   </si>
   <si>
-    <t>（1）单笔调额新增特殊流程选项，可只查询一次授信</t>
-  </si>
-  <si>
-    <t>（1) 在申请批量调额时可选择是否特殊流程，特殊流程仅查询一次授信</t>
+    <t>（1）单笔调额页面新增特殊流程选项，可只查询一次授信</t>
+  </si>
+  <si>
+    <t>（1) 在申请批量调额时可选择是否特殊流程，特殊流程仅查询一次授信（2）在发起批量调额页面添加按钮修改特殊流程状态</t>
   </si>
   <si>
     <t>（1）在条件筛选栏增加“特殊流程”字段用于查询，并在列表栏增加“是否特殊流程”字段展示</t>
@@ -302,6 +344,36 @@
   </si>
   <si>
     <t>（1）决策反馈记录表新增特殊流程标志</t>
+  </si>
+  <si>
+    <t>（1）需要将各个队列中的“授信额度”要改成调额前的额度</t>
+  </si>
+  <si>
+    <t>（1）“审批记录”需要显示决策建议为自动通过、建议拒绝但未经一二级复核的数据                                       （2）决策结果为自动通过且已调额成功，显示同意；决策结果为自动通过但未调额，显示未调整；决策结果为建议拒绝，显示拒绝，审批人显示为空</t>
+  </si>
+  <si>
+    <t>（1）条件筛选中卡种栏需添加卡种代码</t>
+  </si>
+  <si>
+    <t>（1）单笔调额页面提示输入字符不少于5个，在字符输入完毕后就提示是否符合。</t>
+  </si>
+  <si>
+    <t>（1）除目前已显示在调额结果查询页面的数据外，单笔及批量调额决策结果为建议拒绝、单笔调额决策结果为自动通过但未调整、批量调额决策结果为自动通过但已移出的数据均需显示在调额结果查询页面   （2）在调额结果查询列表的调额结果增加“未调整”的码值用于显示单笔调额决策结果为自动通过但未调整、批量调额决策结果为自动通过但已移出的数据</t>
+  </si>
+  <si>
+    <t>（1）发银数系统4001接口中的调额原因设置为固定值21-其他，并在调额结果查询页面增加“调额原因”字段，用于显示单笔调额时输入的调额原因。</t>
+  </si>
+  <si>
+    <t>（1）贷后决策主动跑批结果，需在决策反馈页面显示跑批时间，增加跑批时间的条件筛选</t>
+  </si>
+  <si>
+    <t>（1）银数系统批量调额原因设置为固定值12。</t>
+  </si>
+  <si>
+    <t>（1）对决策主动跑批调额及在贷后系统发起调额申请（单笔及批量）且在流程中的客户，批量导入时应提示有未完结的申请；对在贷后系统发起调额申请（单笔及批量）且在流程中的客户又决策又主动发起跑批的，已最新的决策结果为准。</t>
+  </si>
+  <si>
+    <t>（1）结果查询里增加实时调用调额的功能用于批量调额需单笔与核心交互及单笔、批量调额与核心交互失败的重新交互。</t>
   </si>
 </sst>
 </file>
@@ -309,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31">
@@ -362,6 +434,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -370,7 +449,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,22 +532,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,59 +547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -489,33 +568,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -557,13 +629,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,103 +713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,31 +743,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,25 +791,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +927,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,59 +986,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,11 +1010,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,148 +1032,148 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1590,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1656,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="28">
-        <v>44186</v>
+        <v>44293</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>10</v>
@@ -1680,8 +1752,8 @@
         <v>13</v>
       </c>
       <c r="B7" s="30">
-        <f>C30</f>
-        <v>2.45</v>
+        <f>C42</f>
+        <v>3.5</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>14</v>
@@ -1770,9 +1842,11 @@
         <v>27</v>
       </c>
       <c r="C15" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D15" s="9"/>
+        <v>3.6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3.6</v>
+      </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -1783,9 +1857,11 @@
         <v>28</v>
       </c>
       <c r="C16" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.5</v>
+      </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
@@ -1796,9 +1872,11 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>5.2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4.5</v>
+      </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" ht="14.25" spans="1:5">
@@ -1809,9 +1887,11 @@
         <v>30</v>
       </c>
       <c r="C18" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4.5</v>
+      </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" ht="14.25" spans="1:5">
@@ -1822,9 +1902,11 @@
         <v>31</v>
       </c>
       <c r="C19" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>5.2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4.5</v>
+      </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
@@ -1835,9 +1917,11 @@
         <v>32</v>
       </c>
       <c r="C20" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
@@ -1848,9 +1932,11 @@
         <v>33</v>
       </c>
       <c r="C21" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" ht="14.25" spans="1:5">
@@ -1861,9 +1947,11 @@
         <v>34</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2.5</v>
+      </c>
       <c r="E22" s="12"/>
     </row>
     <row r="23" ht="14.25" spans="1:5">
@@ -1874,9 +1962,11 @@
         <v>35</v>
       </c>
       <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>5.2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>4</v>
+      </c>
       <c r="E23" s="12"/>
     </row>
     <row r="24" ht="14.25" spans="1:5">
@@ -1889,7 +1979,9 @@
       <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
       <c r="E24" s="12"/>
     </row>
     <row r="25" ht="14.25" spans="1:5">
@@ -1902,7 +1994,9 @@
       <c r="C25" s="9">
         <v>2</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" spans="1:5">
@@ -1915,7 +2009,9 @@
       <c r="C26" s="9">
         <v>2</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -1928,7 +2024,9 @@
       <c r="C27" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" ht="14.25" spans="1:5">
@@ -1939,9 +2037,11 @@
         <v>40</v>
       </c>
       <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" ht="14.25" spans="1:5">
@@ -1952,34 +2052,216 @@
         <v>41</v>
       </c>
       <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:5">
+      <c r="A30" s="26">
+        <v>16</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" ht="27" customHeight="1" spans="1:5">
-      <c r="A30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="20">
-        <f>SUM(C15:C29)/22</f>
-        <v>2.45</v>
-      </c>
-      <c r="D30" s="20">
-        <f>SUM(D15:D29)/22</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="42"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="43" t="s">
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:5">
+      <c r="A31" s="26">
+        <v>17</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:5">
+      <c r="A32" s="26">
+        <v>18</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:5">
+      <c r="A33" s="26">
+        <v>19</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="26">
+        <v>20</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" s="26">
+        <v>21</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="26">
+        <v>22</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="26">
+        <v>23</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:5">
+      <c r="A38" s="26">
+        <v>24</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:5">
+      <c r="A39" s="26">
+        <v>25</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:5">
+      <c r="A40" s="26">
+        <v>26</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:5">
+      <c r="A41" s="26">
+        <v>27</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" ht="27" customHeight="1" spans="1:5">
+      <c r="A42" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="20">
+        <f>SUM(C15:C41)/22</f>
+        <v>3.5</v>
+      </c>
+      <c r="D42" s="20">
+        <f>SUM(D15:D41)/22</f>
+        <v>3.32272727272727</v>
+      </c>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2011,22 +2293,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5083333333333" customWidth="1"/>
     <col min="4" max="4" width="61.0666666666667" customWidth="1"/>
     <col min="13" max="13" width="10.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.5083333333333" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2035,42 +2317,42 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="17"/>
       <c r="R1" s="5"/>
       <c r="S1" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
@@ -2082,46 +2364,46 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="18"/>
@@ -2140,13 +2422,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -2161,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="11">
         <v>0.2</v>
       </c>
       <c r="M3" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="11">
         <v>0</v>
@@ -2179,14 +2461,14 @@
         <v>0.5</v>
       </c>
       <c r="Q3" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
       <c r="S3" s="9">
         <f>SUM(E3:R3)</f>
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:19">
@@ -2198,18 +2480,18 @@
         <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E4" s="11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>0</v>
       </c>
       <c r="I4" s="9">
@@ -2219,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.5</v>
       </c>
       <c r="N4" s="11">
         <v>0</v>
@@ -2237,14 +2519,14 @@
         <v>0.5</v>
       </c>
       <c r="Q4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="9">
         <v>1</v>
       </c>
       <c r="S4" s="9">
-        <f>SUM(E4:R4)</f>
-        <v>5.7</v>
+        <f t="shared" ref="S4:S29" si="0">SUM(E4:R4)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:19">
@@ -2256,7 +2538,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E5" s="11">
         <v>0.5</v>
@@ -2264,10 +2546,10 @@
       <c r="F5" s="11">
         <v>0.5</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>0</v>
       </c>
       <c r="I5" s="9">
@@ -2282,7 +2564,7 @@
       <c r="L5" s="11">
         <v>0.2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
       <c r="N5" s="11">
@@ -2295,26 +2577,26 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="9">
         <v>1</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" ref="S5:S12" si="0">SUM(E5:R5)</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:19">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" ht="54" customHeight="1" spans="1:19">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E6" s="11">
         <v>0.5</v>
@@ -2353,17 +2635,17 @@
         <v>0.5</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="9">
         <v>1</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" ht="67" customHeight="1" spans="1:19">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2372,7 +2654,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E7" s="11">
         <v>0.5</v>
@@ -2383,7 +2665,7 @@
       <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>0</v>
       </c>
       <c r="I7" s="9">
@@ -2411,17 +2693,17 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="9">
         <v>1</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:19">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2430,7 +2712,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E8" s="11">
         <v>0.5</v>
@@ -2441,7 +2723,7 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="9">
@@ -2454,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
@@ -2469,17 +2751,17 @@
         <v>0.5</v>
       </c>
       <c r="Q8" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:19">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2488,7 +2770,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E9" s="11">
         <v>0.5</v>
@@ -2512,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11">
         <v>1</v>
@@ -2527,17 +2809,17 @@
         <v>0.5</v>
       </c>
       <c r="Q9" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="9">
         <v>1</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:19">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2546,13 +2828,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11">
         <v>0.2</v>
       </c>
       <c r="F10" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -2567,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -2582,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="9">
         <v>0.5</v>
@@ -2592,7 +2874,7 @@
       </c>
       <c r="S10" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:19">
@@ -2604,18 +2886,18 @@
         <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="9">
@@ -2625,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M11" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="11">
         <v>0</v>
@@ -2640,17 +2922,17 @@
         <v>0</v>
       </c>
       <c r="P11" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="9">
         <v>0.5</v>
       </c>
       <c r="R11" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:19">
@@ -2662,7 +2944,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E12" s="11">
         <v>0.2</v>
@@ -2670,10 +2952,10 @@
       <c r="F12" s="11">
         <v>0.1</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>0</v>
       </c>
       <c r="I12" s="9">
@@ -2720,7 +3002,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E13" s="11">
         <v>0.2</v>
@@ -2765,7 +3047,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="9">
-        <f>SUM(E13:R13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2778,7 +3060,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E14" s="11">
         <v>0.2</v>
@@ -2789,7 +3071,7 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="9">
@@ -2823,7 +3105,7 @@
         <v>0.5</v>
       </c>
       <c r="S14" s="9">
-        <f>SUM(E14:R14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2836,7 +3118,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E15" s="11">
         <v>0.2</v>
@@ -2847,7 +3129,7 @@
       <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
       <c r="I15" s="9">
@@ -2881,11 +3163,11 @@
         <v>0.5</v>
       </c>
       <c r="S15" s="9">
-        <f>SUM(E15:R15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:19">
+    <row r="16" ht="28.5" spans="1:19">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2894,10 +3176,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E16" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="11">
         <v>0.1</v>
@@ -2915,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.1</v>
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.2</v>
       </c>
       <c r="N16" s="11">
         <v>0</v>
@@ -2933,17 +3215,17 @@
         <v>0.2</v>
       </c>
       <c r="Q16" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R16" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S16" s="9">
-        <f>SUM(E16:R16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:19">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2952,146 +3234,842 @@
         <v>41</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:19">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:19">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:19">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="71.25" spans="1:19">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:19">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:19">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" ht="85.5" spans="1:19">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" spans="1:19">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:19">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:19">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="57" spans="1:19">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" ht="28.5" spans="1:19">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13">
+        <f t="shared" ref="E30:K30" si="1">SUM(E3:E28)</f>
+        <v>5.9</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="1"/>
+        <v>9.79999999999999</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" ref="I30:S30" si="2">SUM(L3:L28)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="2"/>
+        <v>18.4</v>
+      </c>
+      <c r="S30" s="13">
+        <f>SUM(S3:S29)</f>
         <v>77</v>
       </c>
-      <c r="E17" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="S17" s="9">
-        <f>SUM(E17:R17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18:K18" si="1">SUM(E3:E17)</f>
-        <v>4.9</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="1"/>
-        <v>8.4</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" ref="I18:S18" si="2">SUM(L3:L17)</f>
-        <v>2</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="2"/>
-        <v>5.1</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="2"/>
-        <v>10.4</v>
-      </c>
-      <c r="R18" s="13">
-        <f t="shared" si="2"/>
-        <v>10.4</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="2"/>
-        <v>53.9</v>
-      </c>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="20">
-        <f>S18/22</f>
-        <v>2.45</v>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="20">
+        <f>S30/22</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +4082,7 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="B3:B29"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="S1:S2"/>
